--- a/medicine/Enfance/Les_Six_Compagnons_à_Scotland_Yard/Les_Six_Compagnons_à_Scotland_Yard.xlsx
+++ b/medicine/Enfance/Les_Six_Compagnons_à_Scotland_Yard/Les_Six_Compagnons_à_Scotland_Yard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_%C3%A0_Scotland_Yard</t>
+          <t>Les_Six_Compagnons_à_Scotland_Yard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Six Compagnons à Scotland Yard est un roman de Paul-Jacques Bonzon, le 14e de la série Les Six Compagnons sur 49 publiés.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_%C3%A0_Scotland_Yard</t>
+          <t>Les_Six_Compagnons_à_Scotland_Yard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Début juin. Alors qu'ils sont allés en promenade aux abords de l'aéroport de Lyon-Bron, les Six Compagnons découvrent un homme blessé dans une voiture accidentée. Apparemment l’homme a eu un accident de voiture. Les Compagnons appellent les secours. Après la prise en charge de l'inconnu, Kafi trouve une montre cassée de fabrication anglaise à quelques dizaines de mètres de là : appartenait-elle au blessé ? Le lendemain, on apprend que l'inconnu s'appelle Harry Simson et qu'il est un homme d'affaires anglais. Les jeunes gens vont le voir à l'hôpital de la Grange-Blanche : il est amnésique et ne se souvient de rien.
 Ils y font la connaissance de Margaret Simson, sa fille, qui leur révèle que des documents très importants, au sujet d'une nouvelle invention, en possession de son père ont été volés. La montre cassée lui étant présentée, elle dit ne pas connaître cette montre qui en tout cas n’appartient pas à son père. Harry Simson était donc en présence d'un tiers, mais qui ? Les documents volés sont des plans d'une machine révolutionnaire à filer la soie. Harry Simson espérait en tirer un très bon prix afin d'en donner une partie à sa fille qui doit prochainement se marier.
